--- a/prob4/22.xlsx
+++ b/prob4/22.xlsx
@@ -1,48 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/pr/repl/prob4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amd\PycharmProjects\infegerep\prob4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160C9B60-71CB-A24C-A296-2225A834CB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="500" windowWidth="32660" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="945" yWindow="495" windowWidth="32655" windowHeight="20505"/>
   </bookViews>
   <sheets>
     <sheet name="22" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>ID процесса B</t>
-  </si>
-  <si>
-    <t>Время выполнения процесса B (мс)</t>
-  </si>
-  <si>
-    <t>ID процессов A</t>
-  </si>
-  <si>
-    <t>1;2</t>
-  </si>
-  <si>
-    <t>4;5</t>
-  </si>
-  <si>
-    <t>7;8</t>
-  </si>
-  <si>
-    <t>8;11</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>В файле содержится информация о совокупности N вычислительных процессов, которые могут выполняться параллельно или последовательно.</t>
   </si>
@@ -59,8 +37,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -86,13 +64,60 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -104,10 +129,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -116,9 +144,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,242 +368,1062 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179E4449-BAD0-BE46-9F69-75274AA1C15C}">
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="162.6640625" customWidth="1"/>
+    <col min="1" max="1" width="162.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="51" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="25" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:1" ht="78" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="76.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="25" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:1" ht="104" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="127.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="25" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:1" ht="78" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="76.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="90" x14ac:dyDescent="1.1499999999999999">
+      <c r="A8" s="8">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:AV17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AN17" sqref="AN17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1" s="4">
+        <v>1</v>
+      </c>
+      <c r="L1" s="4">
+        <v>1</v>
+      </c>
+      <c r="M1" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>3</v>
       </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="6">
+        <f>VLOOKUP(C2,A:G,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <f>VLOOKUP(D2,A:G,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <f>B2+MAX(E2,F2)</f>
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <f>G2-B2</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1</v>
+      </c>
+      <c r="N2" s="4">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1</v>
+      </c>
+      <c r="P2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:E16" si="0">VLOOKUP(C3,A:G,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" ref="F3:F16" si="1">VLOOKUP(D3,A:G,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G16" si="2">B3+MAX(E3,F3)</f>
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H16" si="3">G3-B3</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>1</v>
+      </c>
+      <c r="R3" s="4">
+        <v>1</v>
+      </c>
+      <c r="S3" s="4">
+        <v>1</v>
+      </c>
+      <c r="T3" s="4">
+        <v>1</v>
+      </c>
+      <c r="U3" s="4">
+        <v>1</v>
+      </c>
+      <c r="V3" s="4">
+        <v>1</v>
+      </c>
+      <c r="W3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="X4" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>10</v>
       </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="X5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>6</v>
       </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="5">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D7" s="4">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D8" s="4"/>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="AP8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>3</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D9" s="4"/>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
+      </c>
+      <c r="AS9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="5">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>4</v>
       </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>11</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>4</v>
       </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>12</v>
+      </c>
+      <c r="AH12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="4"/>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>13</v>
+      </c>
+      <c r="AJ13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="4"/>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <v>14</v>
+      </c>
+      <c r="AL14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>11</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D15" s="4"/>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>15</v>
+      </c>
+      <c r="AR15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="5">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>4</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16">
         <v>6</v>
+      </c>
+      <c r="Q16">
+        <v>7</v>
+      </c>
+      <c r="R16">
+        <v>8</v>
+      </c>
+      <c r="S16">
+        <v>9</v>
+      </c>
+      <c r="T16">
+        <v>10</v>
+      </c>
+      <c r="U16">
+        <v>11</v>
+      </c>
+      <c r="V16">
+        <v>12</v>
+      </c>
+      <c r="W16">
+        <v>13</v>
+      </c>
+      <c r="X16">
+        <v>14</v>
+      </c>
+      <c r="Y16">
+        <v>15</v>
+      </c>
+      <c r="Z16">
+        <v>16</v>
+      </c>
+      <c r="AA16">
+        <v>17</v>
+      </c>
+      <c r="AB16">
+        <v>18</v>
+      </c>
+      <c r="AC16">
+        <v>19</v>
+      </c>
+      <c r="AD16">
+        <v>20</v>
+      </c>
+      <c r="AE16">
+        <v>21</v>
+      </c>
+      <c r="AF16">
+        <v>22</v>
+      </c>
+      <c r="AG16">
+        <v>23</v>
+      </c>
+      <c r="AH16">
+        <v>24</v>
+      </c>
+      <c r="AI16">
+        <v>25</v>
+      </c>
+      <c r="AJ16">
+        <v>26</v>
+      </c>
+      <c r="AK16">
+        <v>27</v>
+      </c>
+      <c r="AL16">
+        <v>28</v>
+      </c>
+      <c r="AM16">
+        <v>29</v>
+      </c>
+      <c r="AN16">
+        <v>30</v>
+      </c>
+      <c r="AO16">
+        <v>31</v>
+      </c>
+      <c r="AP16">
+        <v>32</v>
+      </c>
+      <c r="AQ16">
+        <v>33</v>
+      </c>
+      <c r="AR16">
+        <v>34</v>
+      </c>
+      <c r="AS16">
+        <v>35</v>
+      </c>
+      <c r="AT16">
+        <v>36</v>
+      </c>
+      <c r="AU16">
+        <v>37</v>
+      </c>
+      <c r="AV16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f>SUM(K1:K15)</f>
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L17:AV17" si="4">SUM(L1:L15)</f>
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AB17">
+        <f>SUM(AB1:AB15)</f>
+        <v>2</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AL17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AM17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AN17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AO17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AP17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AQ17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AR17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AS17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AT17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AU17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AV17">
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/prob4/22.xlsx
+++ b/prob4/22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="945" yWindow="495" windowWidth="32655" windowHeight="20505"/>
+    <workbookView xWindow="945" yWindow="495" windowWidth="32655" windowHeight="20505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="22" sheetId="2" r:id="rId1"/>
@@ -371,7 +371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -427,8 +427,8 @@
   </sheetPr>
   <dimension ref="A1:AV17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AN17" sqref="AN17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AT21" sqref="AT21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -648,22 +648,22 @@
       <c r="J5">
         <v>5</v>
       </c>
-      <c r="X5" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="4">
-        <v>1</v>
-      </c>
       <c r="AB5" s="4">
         <v>1</v>
       </c>
       <c r="AC5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="4">
         <v>1</v>
       </c>
     </row>
@@ -882,16 +882,16 @@
       <c r="J10">
         <v>10</v>
       </c>
+      <c r="AB10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>1</v>
+      </c>
       <c r="AD10" s="4">
         <v>1</v>
       </c>
       <c r="AE10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="4">
         <v>1</v>
       </c>
     </row>
@@ -925,16 +925,16 @@
       <c r="J11">
         <v>11</v>
       </c>
-      <c r="AD11" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG11" s="4">
+      <c r="AO11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="4">
         <v>1</v>
       </c>
     </row>
@@ -968,10 +968,10 @@
       <c r="J12">
         <v>12</v>
       </c>
-      <c r="AH12" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="4">
+      <c r="AF12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1005,10 +1005,10 @@
       <c r="J13">
         <v>13</v>
       </c>
-      <c r="AJ13" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK13" s="4">
+      <c r="AH13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1042,6 +1042,12 @@
       <c r="J14">
         <v>14</v>
       </c>
+      <c r="AJ14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="4">
+        <v>1</v>
+      </c>
       <c r="AL14" s="4">
         <v>1</v>
       </c>
@@ -1067,12 +1073,6 @@
         <v>1</v>
       </c>
       <c r="AT14" s="4">
-        <v>1</v>
-      </c>
-      <c r="AU14" s="4">
-        <v>1</v>
-      </c>
-      <c r="AV14" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1106,9 +1106,6 @@
       <c r="J15">
         <v>15</v>
       </c>
-      <c r="AR15" s="4">
-        <v>1</v>
-      </c>
       <c r="AS15" s="4">
         <v>1</v>
       </c>
@@ -1116,6 +1113,9 @@
         <v>1</v>
       </c>
       <c r="AU15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV15" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1278,15 +1278,15 @@
         <v>2</v>
       </c>
       <c r="L17">
-        <f t="shared" ref="L17:AV17" si="4">SUM(L1:L15)</f>
+        <f>SUM(L1:L15)</f>
         <v>2</v>
       </c>
       <c r="M17">
-        <f t="shared" si="4"/>
+        <f>SUM(M1:M15)</f>
         <v>2</v>
       </c>
       <c r="N17">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="L17:AV17" si="4">SUM(N1:N15)</f>
         <v>1</v>
       </c>
       <c r="O17">
@@ -1327,106 +1327,118 @@
       </c>
       <c r="X17">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>SUM(Y1:Y15)</f>
+        <v>1</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>SUM(Z1:Z15)</f>
+        <v>1</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>SUM(AA1:AA15)</f>
+        <v>1</v>
       </c>
       <c r="AB17">
         <f>SUM(AB1:AB15)</f>
+        <v>3</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AL17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AM17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AN17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AO17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AP17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AQ17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AR17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AS17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AT17">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AC17">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AD17">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AE17">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AF17">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AG17">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AH17">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AI17">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AJ17">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AK17">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AL17">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AM17">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AN17">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AO17">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AP17">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AQ17">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AR17">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AS17">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AT17">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
       <c r="AU17">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV17">
-        <f t="shared" si="4"/>
+        <f>SUM(AV1:AV15)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="K17:AV17">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/prob4/22.xlsx
+++ b/prob4/22.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amd\PycharmProjects\infegerep\prob4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/pr/artemrep/prob4/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7AA200-D5E7-4C4E-9C50-B0836B0BE898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="495" windowWidth="32655" windowHeight="20505" activeTab="1"/>
+    <workbookView xWindow="940" yWindow="500" windowWidth="32660" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="22" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -37,8 +49,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -96,8 +108,30 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,6 +153,48 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -135,7 +211,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -151,6 +227,16 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
@@ -368,48 +454,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="162.7109375" customWidth="1"/>
+    <col min="1" max="1" width="162.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="51" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="52" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="25" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:1" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="78" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" ht="25" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:1" ht="127.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" ht="104" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" ht="25" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:1" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" ht="78" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="90" x14ac:dyDescent="1.1499999999999999">
+    <row r="8" spans="1:1" ht="88" x14ac:dyDescent="0.8">
       <c r="A8" s="8">
         <v>11</v>
       </c>
@@ -421,19 +507,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AV17"/>
+  <dimension ref="A1:AV18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AT21" sqref="AT21"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="4"/>
@@ -441,20 +527,8 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="7"/>
-      <c r="J1">
-        <v>1</v>
-      </c>
-      <c r="K1" s="4">
-        <v>1</v>
-      </c>
-      <c r="L1" s="4">
-        <v>1</v>
-      </c>
-      <c r="M1" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -482,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2" s="4">
         <v>1</v>
@@ -493,17 +567,8 @@
       <c r="M2" s="4">
         <v>1</v>
       </c>
-      <c r="N2" s="4">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4">
-        <v>1</v>
-      </c>
-      <c r="P2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -531,31 +596,28 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>1</v>
-      </c>
-      <c r="R3" s="4">
-        <v>1</v>
-      </c>
-      <c r="S3" s="4">
-        <v>1</v>
-      </c>
-      <c r="T3" s="4">
-        <v>1</v>
-      </c>
-      <c r="U3" s="4">
-        <v>1</v>
-      </c>
-      <c r="V3" s="4">
-        <v>1</v>
-      </c>
-      <c r="W3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4">
+        <v>1</v>
+      </c>
+      <c r="N3" s="4">
+        <v>1</v>
+      </c>
+      <c r="O3" s="4">
+        <v>1</v>
+      </c>
+      <c r="P3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -585,40 +647,31 @@
         <v>6</v>
       </c>
       <c r="J4">
-        <v>4</v>
-      </c>
-      <c r="X4" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>1</v>
+      </c>
+      <c r="R4" s="9">
+        <v>1</v>
+      </c>
+      <c r="S4" s="9">
+        <v>1</v>
+      </c>
+      <c r="T4" s="9">
+        <v>1</v>
+      </c>
+      <c r="U4" s="9">
+        <v>1</v>
+      </c>
+      <c r="V4" s="9">
+        <v>1</v>
+      </c>
+      <c r="W4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -646,28 +699,40 @@
         <v>13</v>
       </c>
       <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="AB5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="X5" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -695,34 +760,28 @@
         <v>13</v>
       </c>
       <c r="J6">
-        <v>6</v>
-      </c>
-      <c r="AH6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AL6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -752,31 +811,34 @@
         <v>23</v>
       </c>
       <c r="J7">
-        <v>7</v>
-      </c>
-      <c r="AH7" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK7" s="4">
-        <v>1</v>
-      </c>
-      <c r="AL7" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM7" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="AH7" s="11">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="11">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="11">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="11">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="11">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="11">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="11">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -804,19 +866,31 @@
         <v>23</v>
       </c>
       <c r="J8">
-        <v>8</v>
-      </c>
-      <c r="AP8" s="4">
-        <v>1</v>
-      </c>
-      <c r="AQ8" s="4">
-        <v>1</v>
-      </c>
-      <c r="AR8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="AH8" s="11">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="11">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="11">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="11">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="11">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="11">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -844,13 +918,19 @@
         <v>31</v>
       </c>
       <c r="J9">
-        <v>9</v>
-      </c>
-      <c r="AS9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AP9" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -880,22 +960,13 @@
         <v>34</v>
       </c>
       <c r="J10">
-        <v>10</v>
-      </c>
-      <c r="AB10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="AS10" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -923,22 +994,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11</v>
-      </c>
-      <c r="AO11" s="4">
-        <v>1</v>
-      </c>
-      <c r="AP11" s="4">
-        <v>1</v>
-      </c>
-      <c r="AQ11" s="4">
-        <v>1</v>
-      </c>
-      <c r="AR11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -966,16 +1037,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>12</v>
-      </c>
-      <c r="AF12" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="AO12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1003,16 +1080,16 @@
         <v>4</v>
       </c>
       <c r="J13">
-        <v>13</v>
-      </c>
-      <c r="AH13" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="AF13" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1040,43 +1117,16 @@
         <v>6</v>
       </c>
       <c r="J14">
-        <v>14</v>
-      </c>
-      <c r="AJ14" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK14" s="4">
-        <v>1</v>
-      </c>
-      <c r="AL14" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM14" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN14" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO14" s="4">
-        <v>1</v>
-      </c>
-      <c r="AP14" s="4">
-        <v>1</v>
-      </c>
-      <c r="AQ14" s="4">
-        <v>1</v>
-      </c>
-      <c r="AR14" s="4">
-        <v>1</v>
-      </c>
-      <c r="AS14" s="4">
-        <v>1</v>
-      </c>
-      <c r="AT14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="AH14" s="15">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1104,7 +1154,34 @@
         <v>8</v>
       </c>
       <c r="J15">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AJ15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR15" s="4">
+        <v>1</v>
       </c>
       <c r="AS15" s="4">
         <v>1</v>
@@ -1112,14 +1189,8 @@
       <c r="AT15" s="4">
         <v>1</v>
       </c>
-      <c r="AU15" s="4">
-        <v>1</v>
-      </c>
-      <c r="AV15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1148,286 +1219,304 @@
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
+      <c r="J16">
+        <v>15</v>
+      </c>
+      <c r="AP16" s="18"/>
+      <c r="AS16" s="16">
+        <v>1</v>
+      </c>
+      <c r="AT16" s="16">
+        <v>1</v>
+      </c>
+      <c r="AU16" s="17">
+        <v>1</v>
+      </c>
+      <c r="AV16" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
         <v>2</v>
       </c>
-      <c r="M16">
-        <v>3</v>
-      </c>
-      <c r="N16">
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17">
         <v>4</v>
       </c>
-      <c r="O16">
+      <c r="O17">
         <v>5</v>
       </c>
-      <c r="P16">
+      <c r="P17">
         <v>6</v>
       </c>
-      <c r="Q16">
+      <c r="Q17">
         <v>7</v>
       </c>
-      <c r="R16">
+      <c r="R17">
         <v>8</v>
       </c>
-      <c r="S16">
+      <c r="S17">
         <v>9</v>
       </c>
-      <c r="T16">
+      <c r="T17">
         <v>10</v>
       </c>
-      <c r="U16">
+      <c r="U17">
         <v>11</v>
       </c>
-      <c r="V16">
+      <c r="V17">
         <v>12</v>
       </c>
-      <c r="W16">
+      <c r="W17">
         <v>13</v>
       </c>
-      <c r="X16">
+      <c r="X17">
         <v>14</v>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <v>15</v>
       </c>
-      <c r="Z16">
+      <c r="Z17">
         <v>16</v>
       </c>
-      <c r="AA16">
+      <c r="AA17">
         <v>17</v>
       </c>
-      <c r="AB16">
+      <c r="AB17">
         <v>18</v>
       </c>
-      <c r="AC16">
+      <c r="AC17">
         <v>19</v>
       </c>
-      <c r="AD16">
+      <c r="AD17">
         <v>20</v>
       </c>
-      <c r="AE16">
+      <c r="AE17">
         <v>21</v>
       </c>
-      <c r="AF16">
+      <c r="AF17">
         <v>22</v>
       </c>
-      <c r="AG16">
+      <c r="AG17">
         <v>23</v>
       </c>
-      <c r="AH16">
+      <c r="AH17">
         <v>24</v>
       </c>
-      <c r="AI16">
+      <c r="AI17">
         <v>25</v>
       </c>
-      <c r="AJ16">
+      <c r="AJ17">
         <v>26</v>
       </c>
-      <c r="AK16">
+      <c r="AK17">
         <v>27</v>
       </c>
-      <c r="AL16">
+      <c r="AL17">
         <v>28</v>
       </c>
-      <c r="AM16">
+      <c r="AM17">
         <v>29</v>
       </c>
-      <c r="AN16">
+      <c r="AN17">
         <v>30</v>
       </c>
-      <c r="AO16">
+      <c r="AO17">
         <v>31</v>
       </c>
-      <c r="AP16">
+      <c r="AP17">
         <v>32</v>
       </c>
-      <c r="AQ16">
+      <c r="AQ17">
         <v>33</v>
       </c>
-      <c r="AR16">
+      <c r="AR17">
         <v>34</v>
       </c>
-      <c r="AS16">
+      <c r="AS17">
         <v>35</v>
       </c>
-      <c r="AT16">
+      <c r="AT17">
         <v>36</v>
       </c>
-      <c r="AU16">
+      <c r="AU17">
         <v>37</v>
       </c>
-      <c r="AV16">
+      <c r="AV17">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <f>SUM(K1:K15)</f>
+    <row r="18" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K18">
+        <f>SUM(K2:K16)</f>
         <v>2</v>
       </c>
-      <c r="L17">
-        <f>SUM(L1:L15)</f>
+      <c r="L18">
+        <f t="shared" ref="L18:AV18" si="4">SUM(L2:L16)</f>
         <v>2</v>
       </c>
-      <c r="M17">
-        <f>SUM(M1:M15)</f>
+      <c r="M18">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="N17">
-        <f t="shared" ref="L17:AV17" si="4">SUM(N1:N15)</f>
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="X17">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Y17">
-        <f>SUM(Y1:Y15)</f>
-        <v>1</v>
-      </c>
-      <c r="Z17">
-        <f>SUM(Z1:Z15)</f>
-        <v>1</v>
-      </c>
-      <c r="AA17">
-        <f>SUM(AA1:AA15)</f>
-        <v>1</v>
-      </c>
-      <c r="AB17">
-        <f>SUM(AB1:AB15)</f>
-        <v>3</v>
-      </c>
-      <c r="AC17">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AD17">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AE17">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AF17">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AG17">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AH17">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AI17">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AJ17">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AK17">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AL17">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AM17">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AN17">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AO17">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AP17">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AQ17">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AR17">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AS17">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AT17">
+      <c r="N18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <f>SUM(AB2:AB16)</f>
+        <v>3</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AF18">
+        <f>SUM(AF2:AF16)</f>
+        <v>3</v>
+      </c>
+      <c r="AG18">
+        <f>SUM(AG2:AG16)</f>
+        <v>3</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AL18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AM18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AN18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AO18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AP18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AQ18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AR18">
+        <f>SUM(AR2:AR15)</f>
+        <v>3</v>
+      </c>
+      <c r="AS18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AT18">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AU17">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AV17">
-        <f>SUM(AV1:AV15)</f>
+      <c r="AU18">
+        <f>SUM(AU2:AU16)</f>
+        <v>1</v>
+      </c>
+      <c r="AV18">
+        <f>SUM(AV2:AV16)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K17:AV17">
+  <conditionalFormatting sqref="K18:AV18">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1440,5 +1529,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="K18:AQ18 AS18:AV18" formulaRange="1"/>
+    <ignoredError sqref="AR18" formula="1" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>